--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KeenanIVOS\OratorLiveChat\Keenan_Cache\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\cms_User\cms_User\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC3103-C909-4EFE-9164-FA5B17244D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CE504-A9F9-45DA-BA84-D2721530CAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_TC" sheetId="1" r:id="rId1"/>
     <sheet name="Agent" sheetId="3" r:id="rId2"/>
+    <sheet name="Supervisor" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>Description</t>
   </si>
@@ -356,6 +357,30 @@
   </si>
   <si>
     <t>Verify Card View</t>
+  </si>
+  <si>
+    <t>Verify able to submit Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat </t>
+  </si>
+  <si>
+    <t>Verify Able to Escalate chat to Supervisor</t>
+  </si>
+  <si>
+    <t>Verify Escalated Chat Popup Displayed</t>
+  </si>
+  <si>
+    <t>Verify able to Escalated Chat</t>
+  </si>
+  <si>
+    <t>Verify Supervisor able to send Message to enduser</t>
+  </si>
+  <si>
+    <t>Verify Supervisor able to Receive Message from enduser</t>
+  </si>
+  <si>
+    <t>Verify Escalated Chat Displayed (Filter)</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34300357-0FD2-440A-A6DB-443EC22DCF75}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,6 +1533,138 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4DE761-0F5D-4C78-BC2E-E5221E6F5BDB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
